--- a/10-razpredelnice/tockovanje.xlsx
+++ b/10-razpredelnice/tockovanje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jo30084\RP\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01562DEB-412E-4A58-8E48-43E4C0B3631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C919840-09EE-4279-87AA-93A172A2A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="16560" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
